--- a/data/trans_orig/IP26D-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP26D-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{44616CDF-1175-4DB4-B40B-C6A9C9036895}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7BE61E6B-0A0F-49B3-810D-4FF58B5FC039}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4A25D4E1-631D-47B2-B5BE-E526AE31CF1C}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4C7E7264-03AA-48AE-8A50-3A83656D1E8D}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1500" uniqueCount="775">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1500" uniqueCount="781">
   <si>
     <t>Menores según la opinión cuando se toma el sol sin ninguna protección en 2007 (Tasa respuesta: 96,82%)</t>
   </si>
@@ -119,2251 +119,2269 @@
     <t>0,72%</t>
   </si>
   <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>16,96%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>28,25%</t>
+  </si>
+  <si>
+    <t>21,32%</t>
+  </si>
+  <si>
+    <t>36,91%</t>
+  </si>
+  <si>
+    <t>28,44%</t>
+  </si>
+  <si>
+    <t>20,93%</t>
+  </si>
+  <si>
+    <t>36,65%</t>
+  </si>
+  <si>
+    <t>28,35%</t>
+  </si>
+  <si>
+    <t>23,0%</t>
+  </si>
+  <si>
+    <t>34,66%</t>
+  </si>
+  <si>
+    <t>24,4%</t>
+  </si>
+  <si>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>32,35%</t>
+  </si>
+  <si>
+    <t>25,64%</t>
+  </si>
+  <si>
+    <t>18,17%</t>
+  </si>
+  <si>
+    <t>33,37%</t>
+  </si>
+  <si>
+    <t>25,03%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>30,63%</t>
+  </si>
+  <si>
+    <t>27,29%</t>
+  </si>
+  <si>
+    <t>20,12%</t>
+  </si>
+  <si>
+    <t>34,92%</t>
+  </si>
+  <si>
+    <t>31,5%</t>
+  </si>
+  <si>
+    <t>23,61%</t>
+  </si>
+  <si>
+    <t>41,01%</t>
+  </si>
+  <si>
+    <t>29,43%</t>
+  </si>
+  <si>
+    <t>23,68%</t>
+  </si>
+  <si>
+    <t>35,23%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
     <t>6,39%</t>
   </si>
   <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>31,48%</t>
+  </si>
+  <si>
+    <t>28,18%</t>
+  </si>
+  <si>
+    <t>34,84%</t>
+  </si>
+  <si>
+    <t>28,62%</t>
+  </si>
+  <si>
+    <t>25,22%</t>
+  </si>
+  <si>
+    <t>32,61%</t>
+  </si>
+  <si>
+    <t>30,15%</t>
+  </si>
+  <si>
+    <t>27,43%</t>
+  </si>
+  <si>
+    <t>32,42%</t>
+  </si>
+  <si>
+    <t>27,62%</t>
+  </si>
+  <si>
+    <t>24,37%</t>
+  </si>
+  <si>
+    <t>30,87%</t>
+  </si>
+  <si>
+    <t>30,04%</t>
+  </si>
+  <si>
+    <t>26,46%</t>
+  </si>
+  <si>
+    <t>33,97%</t>
+  </si>
+  <si>
+    <t>28,75%</t>
+  </si>
+  <si>
+    <t>26,62%</t>
+  </si>
+  <si>
+    <t>27,75%</t>
+  </si>
+  <si>
+    <t>24,64%</t>
+  </si>
+  <si>
+    <t>31,09%</t>
+  </si>
+  <si>
+    <t>28,12%</t>
+  </si>
+  <si>
+    <t>31,83%</t>
+  </si>
+  <si>
+    <t>27,92%</t>
+  </si>
+  <si>
+    <t>25,49%</t>
+  </si>
+  <si>
+    <t>30,65%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>28,04%</t>
+  </si>
+  <si>
+    <t>22,73%</t>
+  </si>
+  <si>
+    <t>34,58%</t>
+  </si>
+  <si>
+    <t>33,04%</t>
+  </si>
+  <si>
+    <t>27,72%</t>
+  </si>
+  <si>
+    <t>39,46%</t>
+  </si>
+  <si>
+    <t>30,66%</t>
+  </si>
+  <si>
+    <t>26,56%</t>
+  </si>
+  <si>
+    <t>35,07%</t>
+  </si>
+  <si>
+    <t>35,54%</t>
+  </si>
+  <si>
+    <t>29,54%</t>
+  </si>
+  <si>
+    <t>42,45%</t>
+  </si>
+  <si>
+    <t>25,9%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>31,73%</t>
+  </si>
+  <si>
+    <t>30,49%</t>
+  </si>
+  <si>
+    <t>26,54%</t>
+  </si>
+  <si>
+    <t>29,93%</t>
+  </si>
+  <si>
+    <t>24,41%</t>
+  </si>
+  <si>
+    <t>36,54%</t>
+  </si>
+  <si>
+    <t>36,07%</t>
+  </si>
+  <si>
+    <t>29,72%</t>
+  </si>
+  <si>
+    <t>42,18%</t>
+  </si>
+  <si>
+    <t>33,15%</t>
+  </si>
+  <si>
+    <t>29,06%</t>
+  </si>
+  <si>
+    <t>37,67%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>30,32%</t>
+  </si>
+  <si>
+    <t>33,24%</t>
+  </si>
+  <si>
+    <t>29,73%</t>
+  </si>
+  <si>
+    <t>26,65%</t>
+  </si>
+  <si>
+    <t>32,47%</t>
+  </si>
+  <si>
+    <t>30,03%</t>
+  </si>
+  <si>
+    <t>28,21%</t>
+  </si>
+  <si>
+    <t>32,11%</t>
+  </si>
+  <si>
+    <t>29,03%</t>
+  </si>
+  <si>
+    <t>31,68%</t>
+  </si>
+  <si>
+    <t>28,41%</t>
+  </si>
+  <si>
+    <t>25,76%</t>
+  </si>
+  <si>
+    <t>31,65%</t>
+  </si>
+  <si>
+    <t>28,73%</t>
+  </si>
+  <si>
+    <t>26,79%</t>
+  </si>
+  <si>
+    <t>30,71%</t>
+  </si>
+  <si>
+    <t>28,14%</t>
+  </si>
+  <si>
+    <t>25,46%</t>
+  </si>
+  <si>
+    <t>30,77%</t>
+  </si>
+  <si>
+    <t>30,59%</t>
+  </si>
+  <si>
+    <t>27,51%</t>
+  </si>
+  <si>
+    <t>33,59%</t>
+  </si>
+  <si>
+    <t>29,33%</t>
+  </si>
+  <si>
+    <t>27,19%</t>
+  </si>
+  <si>
+    <t>31,24%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según la opinión cuando se toma el sol sin ninguna protección en 2012 (Tasa respuesta: 96,38%)</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>21,68%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>24,05%</t>
+  </si>
+  <si>
+    <t>15,22%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>20,01%</t>
+  </si>
+  <si>
+    <t>20,53%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>27,2%</t>
+  </si>
+  <si>
+    <t>20,5%</t>
+  </si>
+  <si>
+    <t>35,64%</t>
+  </si>
+  <si>
+    <t>24,01%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>29,38%</t>
+  </si>
+  <si>
+    <t>24,65%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>33,77%</t>
+  </si>
+  <si>
+    <t>22,86%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>31,18%</t>
+  </si>
+  <si>
+    <t>23,71%</t>
+  </si>
+  <si>
+    <t>18,67%</t>
+  </si>
+  <si>
+    <t>26,43%</t>
+  </si>
+  <si>
+    <t>19,02%</t>
+  </si>
+  <si>
+    <t>36,78%</t>
+  </si>
+  <si>
+    <t>21,7%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>29,37%</t>
+  </si>
+  <si>
+    <t>23,96%</t>
+  </si>
+  <si>
+    <t>19,23%</t>
+  </si>
+  <si>
+    <t>30,01%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>20,85%</t>
+  </si>
+  <si>
+    <t>27,5%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>27,21%</t>
+  </si>
+  <si>
+    <t>23,89%</t>
+  </si>
+  <si>
+    <t>21,72%</t>
+  </si>
+  <si>
+    <t>26,37%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>24,6%</t>
+  </si>
+  <si>
+    <t>24,96%</t>
+  </si>
+  <si>
+    <t>22,1%</t>
+  </si>
+  <si>
+    <t>28,96%</t>
+  </si>
+  <si>
+    <t>23,26%</t>
+  </si>
+  <si>
+    <t>20,97%</t>
+  </si>
+  <si>
+    <t>25,55%</t>
+  </si>
+  <si>
+    <t>26,55%</t>
+  </si>
+  <si>
+    <t>33,65%</t>
+  </si>
+  <si>
+    <t>26,97%</t>
+  </si>
+  <si>
+    <t>23,95%</t>
+  </si>
+  <si>
+    <t>30,41%</t>
+  </si>
+  <si>
+    <t>28,54%</t>
+  </si>
+  <si>
+    <t>26,22%</t>
+  </si>
+  <si>
+    <t>31,14%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>30,55%</t>
+  </si>
+  <si>
+    <t>24,99%</t>
+  </si>
+  <si>
+    <t>36,73%</t>
+  </si>
+  <si>
+    <t>25,27%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>31,19%</t>
+  </si>
+  <si>
+    <t>27,95%</t>
+  </si>
+  <si>
+    <t>32,18%</t>
+  </si>
+  <si>
+    <t>25,51%</t>
+  </si>
+  <si>
+    <t>20,19%</t>
+  </si>
+  <si>
+    <t>31,69%</t>
+  </si>
+  <si>
+    <t>21,54%</t>
+  </si>
+  <si>
+    <t>33,21%</t>
+  </si>
+  <si>
+    <t>26,23%</t>
+  </si>
+  <si>
+    <t>22,65%</t>
+  </si>
+  <si>
+    <t>26,03%</t>
+  </si>
+  <si>
+    <t>20,94%</t>
+  </si>
+  <si>
+    <t>32,1%</t>
+  </si>
+  <si>
+    <t>25,93%</t>
+  </si>
+  <si>
+    <t>37,22%</t>
+  </si>
+  <si>
+    <t>28,72%</t>
+  </si>
+  <si>
+    <t>24,59%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>25,07%</t>
+  </si>
+  <si>
+    <t>22,67%</t>
+  </si>
+  <si>
+    <t>28,29%</t>
+  </si>
+  <si>
+    <t>24,56%</t>
+  </si>
+  <si>
+    <t>22,02%</t>
+  </si>
+  <si>
+    <t>24,82%</t>
+  </si>
+  <si>
+    <t>22,94%</t>
+  </si>
+  <si>
+    <t>26,64%</t>
+  </si>
+  <si>
+    <t>22,96%</t>
+  </si>
+  <si>
+    <t>20,46%</t>
+  </si>
+  <si>
+    <t>25,59%</t>
+  </si>
+  <si>
+    <t>25,14%</t>
+  </si>
+  <si>
+    <t>22,53%</t>
+  </si>
+  <si>
+    <t>27,86%</t>
+  </si>
+  <si>
+    <t>24,03%</t>
+  </si>
+  <si>
+    <t>22,11%</t>
+  </si>
+  <si>
+    <t>25,95%</t>
+  </si>
+  <si>
+    <t>28,66%</t>
+  </si>
+  <si>
+    <t>26,11%</t>
+  </si>
+  <si>
+    <t>31,46%</t>
+  </si>
+  <si>
+    <t>27,31%</t>
+  </si>
+  <si>
+    <t>24,2%</t>
+  </si>
+  <si>
+    <t>30,11%</t>
+  </si>
+  <si>
+    <t>28,0%</t>
+  </si>
+  <si>
+    <t>26,12%</t>
+  </si>
+  <si>
+    <t>30,09%</t>
+  </si>
+  <si>
+    <t>Menores según la opinión cuando se toma el sol sin ninguna protección en 2016 (Tasa respuesta: 98,02%)</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>21,75%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>32,14%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>23,22%</t>
+  </si>
+  <si>
+    <t>30,81%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
+  </si>
+  <si>
+    <t>40,35%</t>
+  </si>
+  <si>
+    <t>30,76%</t>
+  </si>
+  <si>
+    <t>21,69%</t>
+  </si>
+  <si>
+    <t>40,9%</t>
+  </si>
+  <si>
+    <t>30,79%</t>
+  </si>
+  <si>
+    <t>37,9%</t>
+  </si>
+  <si>
+    <t>21,83%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>31,23%</t>
+  </si>
+  <si>
+    <t>25,94%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>35,7%</t>
+  </si>
+  <si>
+    <t>23,72%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>30,18%</t>
+  </si>
+  <si>
+    <t>19,48%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>27,6%</t>
+  </si>
+  <si>
+    <t>29,53%</t>
+  </si>
+  <si>
+    <t>20,11%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>27,36%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>24,16%</t>
+  </si>
+  <si>
+    <t>30,84%</t>
+  </si>
+  <si>
+    <t>27,18%</t>
+  </si>
+  <si>
+    <t>23,8%</t>
+  </si>
+  <si>
+    <t>27,35%</t>
+  </si>
+  <si>
+    <t>25,1%</t>
+  </si>
+  <si>
+    <t>29,81%</t>
+  </si>
+  <si>
+    <t>26,27%</t>
+  </si>
+  <si>
+    <t>23,02%</t>
+  </si>
+  <si>
+    <t>29,48%</t>
+  </si>
+  <si>
+    <t>30,52%</t>
+  </si>
+  <si>
+    <t>27,22%</t>
+  </si>
+  <si>
+    <t>34,0%</t>
+  </si>
+  <si>
+    <t>25,88%</t>
+  </si>
+  <si>
+    <t>30,78%</t>
+  </si>
+  <si>
+    <t>28,08%</t>
+  </si>
+  <si>
+    <t>24,97%</t>
+  </si>
+  <si>
+    <t>31,56%</t>
+  </si>
+  <si>
+    <t>26,74%</t>
+  </si>
+  <si>
+    <t>23,53%</t>
+  </si>
+  <si>
+    <t>27,42%</t>
+  </si>
+  <si>
+    <t>25,15%</t>
+  </si>
+  <si>
+    <t>29,83%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>37,55%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>29,31%</t>
+  </si>
+  <si>
+    <t>28,02%</t>
+  </si>
+  <si>
+    <t>24,22%</t>
+  </si>
+  <si>
+    <t>32,3%</t>
+  </si>
+  <si>
+    <t>25,04%</t>
+  </si>
+  <si>
+    <t>19,75%</t>
+  </si>
+  <si>
+    <t>30,33%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>24,86%</t>
+  </si>
+  <si>
+    <t>36,69%</t>
+  </si>
+  <si>
+    <t>27,7%</t>
+  </si>
+  <si>
+    <t>31,52%</t>
+  </si>
+  <si>
+    <t>29,25%</t>
+  </si>
+  <si>
+    <t>24,14%</t>
+  </si>
+  <si>
+    <t>34,47%</t>
+  </si>
+  <si>
+    <t>32,54%</t>
+  </si>
+  <si>
+    <t>27,4%</t>
+  </si>
+  <si>
+    <t>38,76%</t>
+  </si>
+  <si>
+    <t>30,83%</t>
+  </si>
+  <si>
+    <t>26,68%</t>
+  </si>
+  <si>
+    <t>35,01%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>28,97%</t>
+  </si>
+  <si>
+    <t>26,6%</t>
+  </si>
+  <si>
+    <t>23,84%</t>
+  </si>
+  <si>
+    <t>29,6%</t>
+  </si>
+  <si>
+    <t>27,82%</t>
+  </si>
+  <si>
+    <t>25,82%</t>
+  </si>
+  <si>
+    <t>29,86%</t>
+  </si>
+  <si>
+    <t>23,2%</t>
+  </si>
+  <si>
+    <t>28,56%</t>
+  </si>
+  <si>
+    <t>30,14%</t>
+  </si>
+  <si>
+    <t>27,23%</t>
+  </si>
+  <si>
+    <t>33,06%</t>
+  </si>
+  <si>
+    <t>27,77%</t>
+  </si>
+  <si>
+    <t>26,02%</t>
+  </si>
+  <si>
+    <t>27,56%</t>
+  </si>
+  <si>
+    <t>30,12%</t>
+  </si>
+  <si>
+    <t>27,66%</t>
+  </si>
+  <si>
+    <t>25,06%</t>
+  </si>
+  <si>
+    <t>27,61%</t>
+  </si>
+  <si>
+    <t>29,75%</t>
+  </si>
+  <si>
+    <t>Menores según la opinión cuando se toma el sol sin ninguna protección en 2023 (Tasa respuesta: 99,01%)</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>25,97%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>20,08%</t>
+  </si>
+  <si>
+    <t>34,32%</t>
+  </si>
+  <si>
+    <t>22,69%</t>
+  </si>
+  <si>
+    <t>45,58%</t>
+  </si>
+  <si>
+    <t>29,21%</t>
+  </si>
+  <si>
+    <t>17,36%</t>
+  </si>
+  <si>
+    <t>43,96%</t>
+  </si>
+  <si>
+    <t>31,94%</t>
+  </si>
+  <si>
+    <t>23,92%</t>
+  </si>
+  <si>
+    <t>40,92%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>24,55%</t>
+  </si>
+  <si>
+    <t>24,93%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>37,91%</t>
+  </si>
+  <si>
+    <t>19,08%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>24,49%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>34,02%</t>
+  </si>
+  <si>
+    <t>20,72%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>22,74%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>30,21%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>42,76%</t>
+  </si>
+  <si>
+    <t>38,43%</t>
+  </si>
+  <si>
+    <t>47,09%</t>
+  </si>
+  <si>
+    <t>42,41%</t>
+  </si>
+  <si>
+    <t>38,26%</t>
+  </si>
+  <si>
+    <t>47,14%</t>
+  </si>
+  <si>
+    <t>42,6%</t>
+  </si>
+  <si>
+    <t>45,66%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>25,58%</t>
+  </si>
+  <si>
+    <t>23,07%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>19,89%</t>
+  </si>
+  <si>
+    <t>25,02%</t>
+  </si>
+  <si>
+    <t>19,67%</t>
+  </si>
+  <si>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>23,63%</t>
+  </si>
+  <si>
+    <t>21,02%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>24,51%</t>
+  </si>
+  <si>
+    <t>20,31%</t>
+  </si>
+  <si>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>29,45%</t>
+  </si>
+  <si>
+    <t>42,47%</t>
+  </si>
+  <si>
+    <t>35,3%</t>
+  </si>
+  <si>
+    <t>29,05%</t>
+  </si>
+  <si>
+    <t>35,42%</t>
+  </si>
+  <si>
+    <t>31,07%</t>
+  </si>
+  <si>
+    <t>40,23%</t>
+  </si>
+  <si>
+    <t>22,15%</t>
+  </si>
+  <si>
+    <t>34,24%</t>
+  </si>
+  <si>
+    <t>20,22%</t>
+  </si>
+  <si>
+    <t>32,38%</t>
+  </si>
+  <si>
+    <t>27,1%</t>
+  </si>
+  <si>
+    <t>31,02%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>22,39%</t>
+  </si>
+  <si>
+    <t>25,53%</t>
+  </si>
+  <si>
+    <t>20,14%</t>
+  </si>
+  <si>
+    <t>21,17%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
   </si>
   <si>
     <t>1,29%</t>
   </si>
   <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>28,25%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>36,03%</t>
-  </si>
-  <si>
-    <t>28,44%</t>
-  </si>
-  <si>
-    <t>21,64%</t>
-  </si>
-  <si>
-    <t>36,62%</t>
-  </si>
-  <si>
-    <t>28,35%</t>
-  </si>
-  <si>
-    <t>22,87%</t>
-  </si>
-  <si>
-    <t>33,57%</t>
-  </si>
-  <si>
-    <t>24,4%</t>
-  </si>
-  <si>
-    <t>18,0%</t>
-  </si>
-  <si>
-    <t>32,94%</t>
-  </si>
-  <si>
-    <t>25,64%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
-  </si>
-  <si>
-    <t>34,32%</t>
-  </si>
-  <si>
-    <t>25,03%</t>
-  </si>
-  <si>
-    <t>19,96%</t>
-  </si>
-  <si>
-    <t>31,1%</t>
-  </si>
-  <si>
-    <t>27,29%</t>
-  </si>
-  <si>
-    <t>20,28%</t>
-  </si>
-  <si>
-    <t>36,54%</t>
-  </si>
-  <si>
-    <t>31,5%</t>
-  </si>
-  <si>
-    <t>24,01%</t>
-  </si>
-  <si>
-    <t>40,26%</t>
-  </si>
-  <si>
-    <t>29,43%</t>
-  </si>
-  <si>
-    <t>23,92%</t>
-  </si>
-  <si>
-    <t>35,16%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
   </si>
   <si>
     <t>2,45%</t>
   </si>
   <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>31,48%</t>
-  </si>
-  <si>
-    <t>27,97%</t>
-  </si>
-  <si>
-    <t>34,92%</t>
-  </si>
-  <si>
-    <t>28,62%</t>
-  </si>
-  <si>
-    <t>25,24%</t>
-  </si>
-  <si>
-    <t>32,39%</t>
-  </si>
-  <si>
-    <t>30,15%</t>
-  </si>
-  <si>
-    <t>27,78%</t>
-  </si>
-  <si>
-    <t>32,73%</t>
-  </si>
-  <si>
-    <t>27,62%</t>
-  </si>
-  <si>
-    <t>24,61%</t>
-  </si>
-  <si>
-    <t>31,05%</t>
-  </si>
-  <si>
-    <t>30,04%</t>
-  </si>
-  <si>
-    <t>26,56%</t>
-  </si>
-  <si>
-    <t>34,13%</t>
-  </si>
-  <si>
-    <t>28,75%</t>
-  </si>
-  <si>
-    <t>26,25%</t>
-  </si>
-  <si>
-    <t>31,11%</t>
-  </si>
-  <si>
-    <t>27,75%</t>
-  </si>
-  <si>
-    <t>24,42%</t>
-  </si>
-  <si>
-    <t>31,27%</t>
-  </si>
-  <si>
-    <t>28,12%</t>
-  </si>
-  <si>
-    <t>24,53%</t>
-  </si>
-  <si>
-    <t>31,55%</t>
-  </si>
-  <si>
-    <t>27,92%</t>
-  </si>
-  <si>
-    <t>25,61%</t>
-  </si>
-  <si>
-    <t>30,34%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>28,04%</t>
-  </si>
-  <si>
-    <t>22,52%</t>
-  </si>
-  <si>
-    <t>33,04%</t>
-  </si>
-  <si>
-    <t>27,24%</t>
-  </si>
-  <si>
-    <t>38,94%</t>
-  </si>
-  <si>
-    <t>30,66%</t>
-  </si>
-  <si>
-    <t>26,71%</t>
-  </si>
-  <si>
-    <t>35,02%</t>
-  </si>
-  <si>
-    <t>35,54%</t>
-  </si>
-  <si>
-    <t>29,49%</t>
-  </si>
-  <si>
-    <t>41,71%</t>
-  </si>
-  <si>
-    <t>25,9%</t>
-  </si>
-  <si>
-    <t>21,28%</t>
-  </si>
-  <si>
-    <t>31,83%</t>
-  </si>
-  <si>
-    <t>30,49%</t>
-  </si>
-  <si>
-    <t>26,64%</t>
-  </si>
-  <si>
-    <t>34,79%</t>
-  </si>
-  <si>
-    <t>29,93%</t>
-  </si>
-  <si>
-    <t>24,95%</t>
-  </si>
-  <si>
-    <t>35,87%</t>
-  </si>
-  <si>
-    <t>36,07%</t>
-  </si>
-  <si>
-    <t>29,77%</t>
-  </si>
-  <si>
-    <t>41,68%</t>
-  </si>
-  <si>
-    <t>33,15%</t>
-  </si>
-  <si>
-    <t>29,42%</t>
-  </si>
-  <si>
-    <t>37,73%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>30,32%</t>
-  </si>
-  <si>
-    <t>27,27%</t>
-  </si>
-  <si>
-    <t>33,03%</t>
-  </si>
-  <si>
-    <t>29,73%</t>
-  </si>
-  <si>
-    <t>26,78%</t>
-  </si>
-  <si>
-    <t>32,75%</t>
-  </si>
-  <si>
-    <t>30,03%</t>
-  </si>
-  <si>
-    <t>28,27%</t>
-  </si>
-  <si>
-    <t>32,29%</t>
-  </si>
-  <si>
-    <t>29,03%</t>
-  </si>
-  <si>
-    <t>26,26%</t>
-  </si>
-  <si>
-    <t>31,76%</t>
-  </si>
-  <si>
-    <t>28,41%</t>
-  </si>
-  <si>
-    <t>25,77%</t>
-  </si>
-  <si>
-    <t>31,57%</t>
-  </si>
-  <si>
-    <t>28,73%</t>
-  </si>
-  <si>
-    <t>30,97%</t>
-  </si>
-  <si>
-    <t>28,14%</t>
-  </si>
-  <si>
-    <t>25,51%</t>
-  </si>
-  <si>
-    <t>31,08%</t>
-  </si>
-  <si>
-    <t>30,59%</t>
-  </si>
-  <si>
-    <t>27,59%</t>
-  </si>
-  <si>
-    <t>33,34%</t>
-  </si>
-  <si>
-    <t>29,33%</t>
-  </si>
-  <si>
-    <t>27,22%</t>
-  </si>
-  <si>
-    <t>31,15%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según la opinión cuando se toma el sol sin ninguna protección en 2012 (Tasa respuesta: 96,38%)</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>22,34%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>23,08%</t>
-  </si>
-  <si>
-    <t>15,22%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>20,15%</t>
-  </si>
-  <si>
-    <t>20,53%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>27,2%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>34,91%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>29,68%</t>
-  </si>
-  <si>
-    <t>24,65%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>34,04%</t>
-  </si>
-  <si>
-    <t>22,86%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>30,35%</t>
-  </si>
-  <si>
-    <t>23,71%</t>
-  </si>
-  <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>29,24%</t>
-  </si>
-  <si>
-    <t>26,43%</t>
-  </si>
-  <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>35,61%</t>
-  </si>
-  <si>
-    <t>21,7%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>29,5%</t>
-  </si>
-  <si>
-    <t>23,96%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>29,28%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>27,43%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>27,18%</t>
-  </si>
-  <si>
-    <t>23,89%</t>
-  </si>
-  <si>
-    <t>21,76%</t>
-  </si>
-  <si>
-    <t>26,27%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>25,1%</t>
-  </si>
-  <si>
-    <t>24,96%</t>
-  </si>
-  <si>
-    <t>21,93%</t>
-  </si>
-  <si>
-    <t>28,91%</t>
-  </si>
-  <si>
-    <t>23,26%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>25,62%</t>
-  </si>
-  <si>
-    <t>30,01%</t>
-  </si>
-  <si>
-    <t>26,87%</t>
-  </si>
-  <si>
-    <t>33,4%</t>
-  </si>
-  <si>
-    <t>26,97%</t>
-  </si>
-  <si>
-    <t>30,46%</t>
-  </si>
-  <si>
-    <t>28,54%</t>
-  </si>
-  <si>
-    <t>26,3%</t>
-  </si>
-  <si>
-    <t>31,09%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>30,55%</t>
-  </si>
-  <si>
-    <t>36,33%</t>
-  </si>
-  <si>
-    <t>25,27%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>27,95%</t>
-  </si>
-  <si>
-    <t>24,05%</t>
-  </si>
-  <si>
-    <t>32,27%</t>
-  </si>
-  <si>
-    <t>31,98%</t>
-  </si>
-  <si>
-    <t>33,68%</t>
-  </si>
-  <si>
-    <t>26,23%</t>
-  </si>
-  <si>
-    <t>22,41%</t>
-  </si>
-  <si>
-    <t>26,03%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>25,75%</t>
-  </si>
-  <si>
-    <t>37,47%</t>
-  </si>
-  <si>
-    <t>28,72%</t>
-  </si>
-  <si>
-    <t>24,87%</t>
-  </si>
-  <si>
-    <t>32,79%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>25,07%</t>
-  </si>
-  <si>
-    <t>22,45%</t>
-  </si>
-  <si>
-    <t>27,54%</t>
-  </si>
-  <si>
-    <t>24,56%</t>
-  </si>
-  <si>
-    <t>22,13%</t>
-  </si>
-  <si>
-    <t>27,35%</t>
-  </si>
-  <si>
-    <t>24,82%</t>
-  </si>
-  <si>
-    <t>23,05%</t>
-  </si>
-  <si>
-    <t>26,63%</t>
-  </si>
-  <si>
-    <t>22,96%</t>
-  </si>
-  <si>
-    <t>20,33%</t>
-  </si>
-  <si>
-    <t>25,53%</t>
-  </si>
-  <si>
-    <t>25,14%</t>
-  </si>
-  <si>
-    <t>27,71%</t>
-  </si>
-  <si>
-    <t>24,03%</t>
-  </si>
-  <si>
-    <t>22,17%</t>
-  </si>
-  <si>
-    <t>25,87%</t>
-  </si>
-  <si>
-    <t>28,66%</t>
-  </si>
-  <si>
-    <t>26,09%</t>
-  </si>
-  <si>
-    <t>31,29%</t>
-  </si>
-  <si>
-    <t>27,31%</t>
-  </si>
-  <si>
-    <t>30,19%</t>
-  </si>
-  <si>
-    <t>28,0%</t>
-  </si>
-  <si>
-    <t>26,21%</t>
-  </si>
-  <si>
-    <t>29,97%</t>
-  </si>
-  <si>
-    <t>Menores según la opinión cuando se toma el sol sin ninguna protección en 2015 (Tasa respuesta: 98,02%)</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>21,75%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>22,97%</t>
-  </si>
-  <si>
-    <t>30,81%</t>
-  </si>
-  <si>
-    <t>42,13%</t>
-  </si>
-  <si>
-    <t>30,76%</t>
-  </si>
-  <si>
-    <t>21,65%</t>
-  </si>
-  <si>
-    <t>40,45%</t>
-  </si>
-  <si>
-    <t>30,79%</t>
-  </si>
-  <si>
-    <t>24,24%</t>
-  </si>
-  <si>
-    <t>37,53%</t>
-  </si>
-  <si>
-    <t>21,83%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>31,16%</t>
-  </si>
-  <si>
-    <t>25,94%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>35,38%</t>
-  </si>
-  <si>
-    <t>23,72%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>29,71%</t>
-  </si>
-  <si>
-    <t>19,48%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>27,73%</t>
-  </si>
-  <si>
-    <t>20,85%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>30,56%</t>
-  </si>
-  <si>
-    <t>20,11%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>26,6%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>27,51%</t>
-  </si>
-  <si>
-    <t>24,16%</t>
-  </si>
-  <si>
-    <t>24,38%</t>
-  </si>
-  <si>
-    <t>30,88%</t>
-  </si>
-  <si>
-    <t>25,08%</t>
-  </si>
-  <si>
-    <t>29,82%</t>
-  </si>
-  <si>
-    <t>29,52%</t>
-  </si>
-  <si>
-    <t>30,52%</t>
-  </si>
-  <si>
-    <t>34,11%</t>
-  </si>
-  <si>
-    <t>26,11%</t>
-  </si>
-  <si>
-    <t>30,82%</t>
-  </si>
-  <si>
-    <t>28,08%</t>
-  </si>
-  <si>
-    <t>24,86%</t>
-  </si>
-  <si>
-    <t>31,74%</t>
-  </si>
-  <si>
-    <t>26,74%</t>
-  </si>
-  <si>
-    <t>23,78%</t>
-  </si>
-  <si>
-    <t>30,1%</t>
-  </si>
-  <si>
-    <t>27,42%</t>
-  </si>
-  <si>
-    <t>29,78%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>32,1%</t>
-  </si>
-  <si>
-    <t>26,67%</t>
-  </si>
-  <si>
-    <t>37,8%</t>
-  </si>
-  <si>
-    <t>23,61%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>28,98%</t>
-  </si>
-  <si>
-    <t>28,02%</t>
-  </si>
-  <si>
-    <t>24,54%</t>
-  </si>
-  <si>
-    <t>31,96%</t>
-  </si>
-  <si>
-    <t>25,04%</t>
-  </si>
-  <si>
-    <t>30,26%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>36,5%</t>
-  </si>
-  <si>
-    <t>27,7%</t>
-  </si>
-  <si>
-    <t>23,95%</t>
-  </si>
-  <si>
-    <t>31,47%</t>
-  </si>
-  <si>
-    <t>29,25%</t>
-  </si>
-  <si>
-    <t>24,32%</t>
-  </si>
-  <si>
-    <t>35,2%</t>
-  </si>
-  <si>
-    <t>32,54%</t>
-  </si>
-  <si>
-    <t>26,82%</t>
-  </si>
-  <si>
-    <t>38,6%</t>
-  </si>
-  <si>
-    <t>30,83%</t>
-  </si>
-  <si>
-    <t>26,73%</t>
-  </si>
-  <si>
-    <t>35,28%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>28,97%</t>
-  </si>
-  <si>
-    <t>31,79%</t>
-  </si>
-  <si>
-    <t>29,46%</t>
-  </si>
-  <si>
-    <t>27,82%</t>
-  </si>
-  <si>
-    <t>25,96%</t>
-  </si>
-  <si>
-    <t>29,98%</t>
-  </si>
-  <si>
-    <t>25,55%</t>
-  </si>
-  <si>
-    <t>22,81%</t>
-  </si>
-  <si>
-    <t>28,36%</t>
-  </si>
-  <si>
-    <t>30,14%</t>
-  </si>
-  <si>
-    <t>27,44%</t>
-  </si>
-  <si>
-    <t>27,77%</t>
-  </si>
-  <si>
-    <t>25,72%</t>
-  </si>
-  <si>
-    <t>29,79%</t>
-  </si>
-  <si>
-    <t>27,56%</t>
-  </si>
-  <si>
-    <t>25,01%</t>
-  </si>
-  <si>
-    <t>30,48%</t>
-  </si>
-  <si>
-    <t>27,66%</t>
-  </si>
-  <si>
-    <t>24,93%</t>
-  </si>
-  <si>
-    <t>30,3%</t>
-  </si>
-  <si>
-    <t>27,61%</t>
-  </si>
-  <si>
-    <t>25,85%</t>
-  </si>
-  <si>
-    <t>Menores según la opinión cuando se toma el sol sin ninguna protección en 2023 (Tasa respuesta: 99,01%)</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>18,38%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>21,34%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>27,58%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>18,94%</t>
-  </si>
-  <si>
-    <t>45,71%</t>
-  </si>
-  <si>
-    <t>29,21%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>43,52%</t>
-  </si>
-  <si>
-    <t>31,94%</t>
-  </si>
-  <si>
-    <t>23,76%</t>
-  </si>
-  <si>
-    <t>40,64%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>22,69%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>38,93%</t>
-  </si>
-  <si>
-    <t>19,08%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>27,68%</t>
-  </si>
-  <si>
-    <t>24,49%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>36,09%</t>
-  </si>
-  <si>
-    <t>20,72%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>32,52%</t>
-  </si>
-  <si>
-    <t>22,74%</t>
-  </si>
-  <si>
-    <t>30,36%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>42,76%</t>
-  </si>
-  <si>
-    <t>38,58%</t>
-  </si>
-  <si>
-    <t>47,43%</t>
-  </si>
-  <si>
-    <t>42,41%</t>
-  </si>
-  <si>
-    <t>37,89%</t>
-  </si>
-  <si>
-    <t>47,38%</t>
-  </si>
-  <si>
-    <t>42,6%</t>
-  </si>
-  <si>
-    <t>39,36%</t>
-  </si>
-  <si>
-    <t>45,59%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>23,07%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>26,69%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>24,73%</t>
-  </si>
-  <si>
-    <t>19,67%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
-  </si>
-  <si>
-    <t>23,37%</t>
-  </si>
-  <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>20,31%</t>
-  </si>
-  <si>
-    <t>18,13%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>29,29%</t>
-  </si>
-  <si>
-    <t>42,59%</t>
-  </si>
-  <si>
-    <t>35,3%</t>
-  </si>
-  <si>
-    <t>28,64%</t>
-  </si>
-  <si>
-    <t>41,75%</t>
-  </si>
-  <si>
-    <t>35,42%</t>
-  </si>
-  <si>
-    <t>40,49%</t>
-  </si>
-  <si>
-    <t>34,65%</t>
-  </si>
-  <si>
-    <t>25,95%</t>
-  </si>
-  <si>
-    <t>20,59%</t>
-  </si>
-  <si>
-    <t>32,44%</t>
-  </si>
-  <si>
-    <t>27,1%</t>
-  </si>
-  <si>
-    <t>22,9%</t>
-  </si>
-  <si>
-    <t>31,53%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>31,49%</t>
-  </si>
-  <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
   </si>
   <si>
     <t>8,96%</t>
   </si>
   <si>
-    <t>11,3%</t>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
   </si>
   <si>
     <t>9,02%</t>
   </si>
   <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
   </si>
   <si>
     <t>8,98%</t>
   </si>
   <si>
-    <t>7,79%</t>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
   </si>
   <si>
     <t>40,36%</t>
   </si>
   <si>
-    <t>37,09%</t>
-  </si>
-  <si>
-    <t>44,02%</t>
+    <t>37,33%</t>
+  </si>
+  <si>
+    <t>43,97%</t>
   </si>
   <si>
     <t>39,82%</t>
   </si>
   <si>
-    <t>36,41%</t>
-  </si>
-  <si>
-    <t>43,51%</t>
+    <t>35,78%</t>
+  </si>
+  <si>
+    <t>43,45%</t>
   </si>
   <si>
     <t>40,11%</t>
   </si>
   <si>
-    <t>37,64%</t>
-  </si>
-  <si>
-    <t>42,62%</t>
+    <t>37,49%</t>
+  </si>
+  <si>
+    <t>42,64%</t>
   </si>
   <si>
     <t>22,68%</t>
   </si>
   <si>
-    <t>25,68%</t>
-  </si>
-  <si>
-    <t>23,84%</t>
-  </si>
-  <si>
-    <t>26,76%</t>
+    <t>21,19%</t>
+  </si>
+  <si>
+    <t>27,05%</t>
   </si>
   <si>
     <t>23,23%</t>
   </si>
   <si>
-    <t>21,39%</t>
-  </si>
-  <si>
-    <t>25,37%</t>
+    <t>21,26%</t>
+  </si>
+  <si>
+    <t>25,57%</t>
   </si>
   <si>
     <t>19,51%</t>
   </si>
   <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>22,44%</t>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>22,31%</t>
   </si>
   <si>
     <t>22,0%</t>
   </si>
   <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>24,85%</t>
+    <t>19,25%</t>
+  </si>
+  <si>
+    <t>25,05%</t>
   </si>
   <si>
     <t>20,69%</t>
   </si>
   <si>
-    <t>22,66%</t>
+    <t>18,83%</t>
   </si>
 </sst>
 </file>
@@ -2775,7 +2793,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D994278D-9480-466D-A6AC-E83C70069EBF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C49AA14D-AE5B-407A-B328-F59A5D5E6CA2}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3636,10 +3654,10 @@
         <v>85</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>25</v>
+        <v>86</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3654,13 +3672,13 @@
         <v>16935</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H19" s="7">
         <v>17</v>
@@ -3669,13 +3687,13 @@
         <v>10319</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>92</v>
+        <v>46</v>
       </c>
       <c r="M19" s="7">
         <v>43</v>
@@ -3843,7 +3861,7 @@
         <v>121</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>122</v>
+        <v>72</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3858,13 +3876,13 @@
         <v>128906</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="H23" s="7">
         <v>171</v>
@@ -3873,13 +3891,13 @@
         <v>113508</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="M23" s="7">
         <v>367</v>
@@ -3888,13 +3906,13 @@
         <v>242414</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3950,7 +3968,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -3962,13 +3980,13 @@
         <v>665</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H25" s="7">
         <v>2</v>
@@ -3977,13 +3995,13 @@
         <v>1427</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="M25" s="7">
         <v>3</v>
@@ -3992,13 +4010,13 @@
         <v>2092</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4013,13 +4031,13 @@
         <v>613</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H26" s="7">
         <v>2</v>
@@ -4028,13 +4046,13 @@
         <v>1220</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="M26" s="7">
         <v>3</v>
@@ -4043,13 +4061,13 @@
         <v>1834</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4064,13 +4082,13 @@
         <v>8603</v>
       </c>
       <c r="E27" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G27" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="H27" s="7">
         <v>8</v>
@@ -4079,13 +4097,13 @@
         <v>5722</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>150</v>
+        <v>28</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="M27" s="7">
         <v>21</v>
@@ -4094,13 +4112,13 @@
         <v>14325</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -4115,13 +4133,13 @@
         <v>42678</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>119</v>
+        <v>154</v>
       </c>
       <c r="H28" s="7">
         <v>81</v>
@@ -4130,13 +4148,13 @@
         <v>55421</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>159</v>
       </c>
       <c r="M28" s="7">
         <v>144</v>
@@ -4145,13 +4163,13 @@
         <v>98099</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4166,13 +4184,13 @@
         <v>54099</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="H29" s="7">
         <v>64</v>
@@ -4181,13 +4199,13 @@
         <v>43441</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>168</v>
       </c>
       <c r="M29" s="7">
         <v>145</v>
@@ -4196,13 +4214,13 @@
         <v>97540</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>171</v>
+        <v>59</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4217,13 +4235,13 @@
         <v>45549</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="H30" s="7">
         <v>87</v>
@@ -4232,13 +4250,13 @@
         <v>60499</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="M30" s="7">
         <v>155</v>
@@ -4247,13 +4265,13 @@
         <v>106048</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4321,13 +4339,13 @@
         <v>8008</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="H32" s="7">
         <v>15</v>
@@ -4336,13 +4354,13 @@
         <v>10056</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>145</v>
+        <v>180</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="M32" s="7">
         <v>27</v>
@@ -4351,13 +4369,13 @@
         <v>18064</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4372,13 +4390,13 @@
         <v>23348</v>
       </c>
       <c r="E33" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="F33" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="F33" s="7" t="s">
+      <c r="G33" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>189</v>
       </c>
       <c r="H33" s="7">
         <v>22</v>
@@ -4387,13 +4405,13 @@
         <v>13678</v>
       </c>
       <c r="J33" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="K33" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="K33" s="7" t="s">
+      <c r="L33" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="L33" s="7" t="s">
-        <v>192</v>
       </c>
       <c r="M33" s="7">
         <v>58</v>
@@ -4402,13 +4420,13 @@
         <v>37027</v>
       </c>
       <c r="O33" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q33" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="P33" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q33" s="7" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -4423,13 +4441,13 @@
         <v>56325</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="G34" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>198</v>
       </c>
       <c r="H34" s="7">
         <v>76</v>
@@ -4438,13 +4456,13 @@
         <v>50403</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="L34" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>201</v>
       </c>
       <c r="M34" s="7">
         <v>161</v>
@@ -4453,13 +4471,13 @@
         <v>106727</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q34" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4474,13 +4492,13 @@
         <v>212498</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>206</v>
+        <v>122</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="H35" s="7">
         <v>290</v>
@@ -4489,13 +4507,13 @@
         <v>195497</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="M35" s="7">
         <v>607</v>
@@ -4504,13 +4522,13 @@
         <v>407995</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -4525,13 +4543,13 @@
         <v>203480</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>215</v>
+        <v>118</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="H36" s="7">
         <v>281</v>
@@ -4540,13 +4558,13 @@
         <v>186826</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="M36" s="7">
         <v>587</v>
@@ -4555,13 +4573,13 @@
         <v>390306</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4576,13 +4594,13 @@
         <v>197223</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H37" s="7">
         <v>299</v>
@@ -4591,13 +4609,13 @@
         <v>201166</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="M37" s="7">
         <v>597</v>
@@ -4606,13 +4624,13 @@
         <v>398388</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4668,7 +4686,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -4688,7 +4706,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FF0039D-8FFE-4494-B401-C518965C9E34}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{880490D7-A61C-4290-A1F4-616AA64F16F1}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4705,7 +4723,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5157,13 +5175,13 @@
         <v>5771</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>234</v>
+        <v>89</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="H11" s="7">
         <v>4</v>
@@ -5172,13 +5190,13 @@
         <v>2568</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="M11" s="7">
         <v>11</v>
@@ -5187,13 +5205,13 @@
         <v>8339</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>240</v>
+        <v>91</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5208,13 +5226,13 @@
         <v>5794</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="H12" s="7">
         <v>12</v>
@@ -5223,13 +5241,13 @@
         <v>8808</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>245</v>
+        <v>196</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="M12" s="7">
         <v>20</v>
@@ -5238,13 +5256,13 @@
         <v>14603</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5259,13 +5277,13 @@
         <v>12214</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="H13" s="7">
         <v>21</v>
@@ -5274,13 +5292,13 @@
         <v>14453</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>255</v>
+        <v>98</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="M13" s="7">
         <v>38</v>
@@ -5289,13 +5307,13 @@
         <v>26667</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5310,13 +5328,13 @@
         <v>17193</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>222</v>
+        <v>127</v>
       </c>
       <c r="H14" s="7">
         <v>36</v>
@@ -5325,13 +5343,13 @@
         <v>24888</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="M14" s="7">
         <v>62</v>
@@ -5340,13 +5358,13 @@
         <v>42081</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>73</v>
+        <v>258</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5361,13 +5379,13 @@
         <v>20639</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="H15" s="7">
         <v>31</v>
@@ -5376,13 +5394,13 @@
         <v>20914</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="M15" s="7">
         <v>60</v>
@@ -5391,13 +5409,13 @@
         <v>41553</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>275</v>
+        <v>225</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5412,13 +5430,13 @@
         <v>22131</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="H16" s="7">
         <v>29</v>
@@ -5427,13 +5445,13 @@
         <v>19854</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="M16" s="7">
         <v>60</v>
@@ -5442,13 +5460,13 @@
         <v>41986</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5516,13 +5534,13 @@
         <v>19953</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="H18" s="7">
         <v>21</v>
@@ -5534,10 +5552,10 @@
         <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="M18" s="7">
         <v>47</v>
@@ -5546,13 +5564,13 @@
         <v>34316</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5567,13 +5585,13 @@
         <v>38597</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="H19" s="7">
         <v>53</v>
@@ -5582,13 +5600,13 @@
         <v>39386</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>203</v>
+        <v>237</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="M19" s="7">
         <v>108</v>
@@ -5597,13 +5615,13 @@
         <v>77983</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5618,13 +5636,13 @@
         <v>55982</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="H20" s="7">
         <v>76</v>
@@ -5633,13 +5651,13 @@
         <v>53355</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="M20" s="7">
         <v>156</v>
@@ -5648,13 +5666,13 @@
         <v>109337</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5669,13 +5687,13 @@
         <v>113141</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>73</v>
+        <v>258</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="H21" s="7">
         <v>151</v>
@@ -5684,13 +5702,13 @@
         <v>104628</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>313</v>
+        <v>253</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="M21" s="7">
         <v>313</v>
@@ -5699,13 +5717,13 @@
         <v>217768</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5720,13 +5738,13 @@
         <v>102081</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="H22" s="7">
         <v>161</v>
@@ -5735,13 +5753,13 @@
         <v>109931</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="M22" s="7">
         <v>309</v>
@@ -5750,13 +5768,13 @@
         <v>212012</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5771,13 +5789,13 @@
         <v>141400</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>327</v>
+        <v>277</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="H23" s="7">
         <v>175</v>
@@ -5786,13 +5804,13 @@
         <v>118789</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>273</v>
+        <v>322</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="M23" s="7">
         <v>380</v>
@@ -5801,13 +5819,13 @@
         <v>260189</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5863,7 +5881,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -5875,13 +5893,13 @@
         <v>4355</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>336</v>
+        <v>85</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="H25" s="7">
         <v>6</v>
@@ -5890,13 +5908,13 @@
         <v>4790</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>31</v>
+        <v>330</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>197</v>
+        <v>331</v>
       </c>
       <c r="M25" s="7">
         <v>12</v>
@@ -5905,13 +5923,13 @@
         <v>9145</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>340</v>
+        <v>31</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5926,13 +5944,13 @@
         <v>8057</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>343</v>
+        <v>89</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="H26" s="7">
         <v>10</v>
@@ -5941,13 +5959,13 @@
         <v>6866</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>36</v>
+        <v>337</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>299</v>
+        <v>338</v>
       </c>
       <c r="M26" s="7">
         <v>21</v>
@@ -5956,13 +5974,13 @@
         <v>14923</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5977,13 +5995,13 @@
         <v>16889</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>238</v>
+        <v>343</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="H27" s="7">
         <v>20</v>
@@ -5992,13 +6010,13 @@
         <v>14234</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="M27" s="7">
         <v>44</v>
@@ -6007,13 +6025,13 @@
         <v>31124</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>305</v>
+        <v>348</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -6028,13 +6046,13 @@
         <v>49999</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>115</v>
+        <v>352</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="H28" s="7">
         <v>57</v>
@@ -6043,13 +6061,13 @@
         <v>40204</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>219</v>
+        <v>356</v>
       </c>
       <c r="M28" s="7">
         <v>129</v>
@@ -6058,13 +6076,13 @@
         <v>90202</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>361</v>
+        <v>305</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6079,13 +6097,13 @@
         <v>41754</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>223</v>
+        <v>359</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>313</v>
+        <v>360</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="H29" s="7">
         <v>60</v>
@@ -6094,13 +6112,13 @@
         <v>42903</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>55</v>
+        <v>362</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="M29" s="7">
         <v>119</v>
@@ -6109,13 +6127,13 @@
         <v>84657</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>365</v>
       </c>
-      <c r="P29" s="7" t="s">
-        <v>366</v>
-      </c>
       <c r="Q29" s="7" t="s">
-        <v>225</v>
+        <v>323</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6130,13 +6148,13 @@
         <v>42595</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>367</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>368</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>213</v>
       </c>
       <c r="H30" s="7">
         <v>72</v>
@@ -6166,7 +6184,7 @@
         <v>372</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>373</v>
+        <v>204</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6234,13 +6252,13 @@
         <v>30079</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="F32" s="7" t="s">
         <v>374</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="G32" s="7" t="s">
         <v>375</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>376</v>
       </c>
       <c r="H32" s="7">
         <v>31</v>
@@ -6252,10 +6270,10 @@
         <v>93</v>
       </c>
       <c r="K32" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>377</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>378</v>
       </c>
       <c r="M32" s="7">
         <v>70</v>
@@ -6264,13 +6282,13 @@
         <v>51800</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="P32" s="7" t="s">
         <v>379</v>
       </c>
-      <c r="P32" s="7" t="s">
+      <c r="Q32" s="7" t="s">
         <v>380</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6318,10 +6336,10 @@
         <v>387</v>
       </c>
       <c r="P33" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q33" s="7" t="s">
         <v>388</v>
-      </c>
-      <c r="Q33" s="7" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -6336,13 +6354,13 @@
         <v>85086</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="G34" s="7" t="s">
         <v>390</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>391</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>392</v>
       </c>
       <c r="H34" s="7">
         <v>117</v>
@@ -6351,13 +6369,13 @@
         <v>82042</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="L34" s="7" t="s">
         <v>393</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>394</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>261</v>
       </c>
       <c r="M34" s="7">
         <v>238</v>
@@ -6366,13 +6384,13 @@
         <v>167127</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="P34" s="7" t="s">
         <v>395</v>
       </c>
-      <c r="P34" s="7" t="s">
+      <c r="Q34" s="7" t="s">
         <v>396</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6387,13 +6405,13 @@
         <v>180332</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="F35" s="7" t="s">
         <v>398</v>
       </c>
-      <c r="F35" s="7" t="s">
+      <c r="G35" s="7" t="s">
         <v>399</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>400</v>
       </c>
       <c r="H35" s="7">
         <v>244</v>
@@ -6402,13 +6420,13 @@
         <v>169719</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="K35" s="7" t="s">
         <v>401</v>
       </c>
-      <c r="K35" s="7" t="s">
-        <v>402</v>
-      </c>
       <c r="L35" s="7" t="s">
-        <v>403</v>
+        <v>114</v>
       </c>
       <c r="M35" s="7">
         <v>504</v>
@@ -6417,13 +6435,13 @@
         <v>350051</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="Q35" s="7" t="s">
         <v>404</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>405</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6438,13 +6456,13 @@
         <v>165115</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="G36" s="7" t="s">
         <v>407</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>408</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>409</v>
       </c>
       <c r="H36" s="7">
         <v>252</v>
@@ -6453,13 +6471,13 @@
         <v>173748</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="L36" s="7" t="s">
         <v>410</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>411</v>
       </c>
       <c r="M36" s="7">
         <v>489</v>
@@ -6468,13 +6486,13 @@
         <v>338862</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="P36" s="7" t="s">
         <v>412</v>
       </c>
-      <c r="P36" s="7" t="s">
+      <c r="Q36" s="7" t="s">
         <v>413</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6489,13 +6507,13 @@
         <v>206126</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="F37" s="7" t="s">
         <v>415</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="G37" s="7" t="s">
         <v>416</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>417</v>
       </c>
       <c r="H37" s="7">
         <v>276</v>
@@ -6504,10 +6522,10 @@
         <v>188727</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="K37" s="7" t="s">
         <v>418</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>267</v>
       </c>
       <c r="L37" s="7" t="s">
         <v>419</v>
@@ -6581,7 +6599,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -6601,7 +6619,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C10D99F-04B8-470C-B2A7-8BF78116DFBE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{554BBB00-972D-42D4-ADE3-2E36252B70D1}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7075,7 +7093,7 @@
         <v>428</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>429</v>
@@ -7096,10 +7114,10 @@
         <v>430</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>431</v>
+        <v>187</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>432</v>
+        <v>299</v>
       </c>
       <c r="H12" s="7">
         <v>6</v>
@@ -7108,13 +7126,13 @@
         <v>4454</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>433</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>434</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>435</v>
       </c>
       <c r="M12" s="7">
         <v>11</v>
@@ -7123,13 +7141,13 @@
         <v>8658</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>348</v>
+        <v>434</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>437</v>
+        <v>290</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7144,13 +7162,13 @@
         <v>14926</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>438</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>439</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="H13" s="7">
         <v>9</v>
@@ -7159,10 +7177,10 @@
         <v>6471</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>440</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>337</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>441</v>
@@ -7198,10 +7216,10 @@
         <v>445</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>405</v>
+        <v>446</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="H14" s="7">
         <v>28</v>
@@ -7210,13 +7228,13 @@
         <v>18055</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="M14" s="7">
         <v>58</v>
@@ -7225,10 +7243,10 @@
         <v>39198</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>451</v>
+        <v>60</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>452</v>
@@ -7312,13 +7330,13 @@
         <v>12239</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>465</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>466</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>467</v>
       </c>
       <c r="M16" s="7">
         <v>40</v>
@@ -7327,13 +7345,13 @@
         <v>25604</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>468</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>469</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>470</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7401,13 +7419,13 @@
         <v>7685</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>471</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>347</v>
       </c>
       <c r="H18" s="7">
         <v>8</v>
@@ -7419,10 +7437,10 @@
         <v>472</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>80</v>
+        <v>473</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="M18" s="7">
         <v>18</v>
@@ -7431,13 +7449,13 @@
         <v>13133</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>473</v>
+        <v>281</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7452,13 +7470,13 @@
         <v>23150</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H19" s="7">
         <v>48</v>
@@ -7467,13 +7485,13 @@
         <v>32010</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="M19" s="7">
         <v>78</v>
@@ -7482,13 +7500,13 @@
         <v>55161</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>484</v>
+        <v>349</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7524,7 +7542,7 @@
         <v>489</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>490</v>
+        <v>298</v>
       </c>
       <c r="M20" s="7">
         <v>129</v>
@@ -7533,13 +7551,13 @@
         <v>90537</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>490</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>491</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>492</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>493</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7554,13 +7572,13 @@
         <v>132032</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>493</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>494</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>495</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="H21" s="7">
         <v>186</v>
@@ -7569,13 +7587,13 @@
         <v>125276</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>314</v>
+        <v>495</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>496</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>497</v>
+        <v>203</v>
       </c>
       <c r="M21" s="7">
         <v>374</v>
@@ -7584,7 +7602,7 @@
         <v>257308</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>403</v>
+        <v>497</v>
       </c>
       <c r="P21" s="7" t="s">
         <v>498</v>
@@ -7605,13 +7623,13 @@
         <v>126083</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>317</v>
+        <v>500</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>58</v>
+        <v>501</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="H22" s="7">
         <v>211</v>
@@ -7620,13 +7638,13 @@
         <v>140686</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>262</v>
+        <v>504</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="M22" s="7">
         <v>392</v>
@@ -7638,10 +7656,10 @@
         <v>57</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7656,13 +7674,13 @@
         <v>134766</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="H23" s="7">
         <v>193</v>
@@ -7671,13 +7689,13 @@
         <v>123250</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>510</v>
+        <v>422</v>
       </c>
       <c r="M23" s="7">
         <v>389</v>
@@ -7686,13 +7704,13 @@
         <v>258015</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>320</v>
+        <v>514</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7748,7 +7766,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -7760,13 +7778,13 @@
         <v>2619</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="H25" s="7">
         <v>4</v>
@@ -7775,13 +7793,13 @@
         <v>3349</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>249</v>
+        <v>521</v>
       </c>
       <c r="M25" s="7">
         <v>7</v>
@@ -7790,13 +7808,13 @@
         <v>5967</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7811,13 +7829,13 @@
         <v>9148</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="H26" s="7">
         <v>10</v>
@@ -7826,13 +7844,13 @@
         <v>6892</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>473</v>
+        <v>529</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>525</v>
+        <v>530</v>
       </c>
       <c r="M26" s="7">
         <v>22</v>
@@ -7841,13 +7859,13 @@
         <v>16040</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>526</v>
+        <v>531</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>291</v>
+        <v>471</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>527</v>
+        <v>532</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7862,13 +7880,13 @@
         <v>13122</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>528</v>
+        <v>533</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>189</v>
+        <v>534</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>529</v>
+        <v>535</v>
       </c>
       <c r="H27" s="7">
         <v>18</v>
@@ -7877,13 +7895,13 @@
         <v>12208</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>530</v>
+        <v>536</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>531</v>
+        <v>537</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>532</v>
+        <v>538</v>
       </c>
       <c r="M27" s="7">
         <v>38</v>
@@ -7892,13 +7910,13 @@
         <v>25330</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>299</v>
+        <v>539</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>533</v>
+        <v>540</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>534</v>
+        <v>541</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -7913,13 +7931,13 @@
         <v>58664</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>535</v>
+        <v>368</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>536</v>
+        <v>168</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>537</v>
+        <v>542</v>
       </c>
       <c r="H28" s="7">
         <v>58</v>
@@ -7928,13 +7946,13 @@
         <v>39920</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>538</v>
+        <v>73</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="M28" s="7">
         <v>144</v>
@@ -7943,13 +7961,13 @@
         <v>98584</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7964,13 +7982,13 @@
         <v>45765</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>462</v>
+        <v>549</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>545</v>
+        <v>550</v>
       </c>
       <c r="H29" s="7">
         <v>78</v>
@@ -7979,13 +7997,13 @@
         <v>51693</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>546</v>
+        <v>551</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>115</v>
+        <v>552</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>547</v>
+        <v>553</v>
       </c>
       <c r="M29" s="7">
         <v>143</v>
@@ -7994,13 +8012,13 @@
         <v>97459</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>549</v>
+        <v>73</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>550</v>
+        <v>555</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8015,13 +8033,13 @@
         <v>53454</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>551</v>
+        <v>556</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>552</v>
+        <v>557</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>553</v>
+        <v>558</v>
       </c>
       <c r="H30" s="7">
         <v>85</v>
@@ -8030,13 +8048,13 @@
         <v>55030</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>554</v>
+        <v>559</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>555</v>
+        <v>560</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>556</v>
+        <v>561</v>
       </c>
       <c r="M30" s="7">
         <v>163</v>
@@ -8045,13 +8063,13 @@
         <v>108483</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>557</v>
+        <v>562</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>558</v>
+        <v>563</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>559</v>
+        <v>564</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8119,13 +8137,13 @@
         <v>10303</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>560</v>
+        <v>565</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>37</v>
+        <v>566</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>24</v>
+        <v>567</v>
       </c>
       <c r="H32" s="7">
         <v>15</v>
@@ -8134,13 +8152,13 @@
         <v>11054</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>561</v>
+        <v>568</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>562</v>
+        <v>569</v>
       </c>
       <c r="M32" s="7">
         <v>28</v>
@@ -8149,13 +8167,13 @@
         <v>21357</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>564</v>
+        <v>571</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>565</v>
+        <v>474</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8170,13 +8188,13 @@
         <v>36503</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>292</v>
+        <v>572</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>46</v>
+        <v>573</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>566</v>
+        <v>574</v>
       </c>
       <c r="H33" s="7">
         <v>64</v>
@@ -8185,13 +8203,13 @@
         <v>43356</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>567</v>
+        <v>575</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>568</v>
+        <v>576</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>569</v>
+        <v>577</v>
       </c>
       <c r="M33" s="7">
         <v>111</v>
@@ -8200,13 +8218,13 @@
         <v>79859</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>570</v>
+        <v>578</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>571</v>
+        <v>484</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>197</v>
+        <v>579</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -8221,13 +8239,13 @@
         <v>84262</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>572</v>
+        <v>580</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>573</v>
+        <v>581</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>574</v>
+        <v>582</v>
       </c>
       <c r="H34" s="7">
         <v>78</v>
@@ -8236,13 +8254,13 @@
         <v>53001</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>575</v>
+        <v>583</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>576</v>
+        <v>584</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>577</v>
+        <v>585</v>
       </c>
       <c r="M34" s="7">
         <v>196</v>
@@ -8251,13 +8269,13 @@
         <v>137263</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>578</v>
+        <v>199</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>96</v>
+        <v>586</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>440</v>
+        <v>587</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8272,13 +8290,13 @@
         <v>211838</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>579</v>
+        <v>588</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>121</v>
+        <v>325</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>580</v>
+        <v>361</v>
       </c>
       <c r="H35" s="7">
         <v>272</v>
@@ -8287,13 +8305,13 @@
         <v>183251</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>470</v>
+        <v>589</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>459</v>
+        <v>590</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>581</v>
+        <v>591</v>
       </c>
       <c r="M35" s="7">
         <v>576</v>
@@ -8302,13 +8320,13 @@
         <v>395090</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>582</v>
+        <v>592</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>583</v>
+        <v>593</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>584</v>
+        <v>594</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -8323,13 +8341,13 @@
         <v>186826</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>585</v>
+        <v>318</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>586</v>
+        <v>595</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>587</v>
+        <v>596</v>
       </c>
       <c r="H36" s="7">
         <v>312</v>
@@ -8338,13 +8356,13 @@
         <v>207605</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>588</v>
+        <v>597</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>589</v>
+        <v>598</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>157</v>
+        <v>599</v>
       </c>
       <c r="M36" s="7">
         <v>581</v>
@@ -8353,13 +8371,13 @@
         <v>394431</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>590</v>
+        <v>600</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>591</v>
+        <v>601</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>592</v>
+        <v>205</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8374,13 +8392,13 @@
         <v>201584</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>593</v>
+        <v>602</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>594</v>
+        <v>509</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>595</v>
+        <v>603</v>
       </c>
       <c r="H37" s="7">
         <v>297</v>
@@ -8389,13 +8407,13 @@
         <v>190518</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>596</v>
+        <v>604</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>597</v>
+        <v>605</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>598</v>
+        <v>562</v>
       </c>
       <c r="M37" s="7">
         <v>592</v>
@@ -8404,13 +8422,13 @@
         <v>392103</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>599</v>
+        <v>606</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>600</v>
+        <v>214</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>164</v>
+        <v>607</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8466,7 +8484,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -8486,7 +8504,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{103B7658-F942-4E6C-B822-04B72E017677}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B631E80-736F-4660-9CDD-62805ACC9E98}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8503,7 +8521,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>601</v>
+        <v>608</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -8955,13 +8973,13 @@
         <v>4742</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>569</v>
+        <v>609</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>602</v>
+        <v>610</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>603</v>
+        <v>611</v>
       </c>
       <c r="H11" s="7">
         <v>2</v>
@@ -8976,7 +8994,7 @@
         <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>604</v>
+        <v>612</v>
       </c>
       <c r="M11" s="7">
         <v>8</v>
@@ -8985,13 +9003,13 @@
         <v>6352</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>605</v>
+        <v>613</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>343</v>
+        <v>614</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>606</v>
+        <v>615</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -9006,13 +9024,13 @@
         <v>4570</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>607</v>
+        <v>616</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>608</v>
+        <v>617</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>609</v>
+        <v>618</v>
       </c>
       <c r="H12" s="7">
         <v>5</v>
@@ -9021,13 +9039,13 @@
         <v>2970</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>610</v>
+        <v>382</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>611</v>
+        <v>189</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="M12" s="7">
         <v>13</v>
@@ -9036,13 +9054,13 @@
         <v>7539</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>613</v>
+        <v>620</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>614</v>
+        <v>621</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>615</v>
+        <v>622</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -9057,13 +9075,13 @@
         <v>6666</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>616</v>
+        <v>623</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>570</v>
+        <v>624</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>617</v>
+        <v>625</v>
       </c>
       <c r="H13" s="7">
         <v>14</v>
@@ -9072,13 +9090,13 @@
         <v>8297</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>618</v>
+        <v>626</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>619</v>
+        <v>236</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>620</v>
+        <v>627</v>
       </c>
       <c r="M13" s="7">
         <v>24</v>
@@ -9087,13 +9105,13 @@
         <v>14963</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>621</v>
+        <v>628</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>622</v>
+        <v>291</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>623</v>
+        <v>629</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -9108,13 +9126,13 @@
         <v>20166</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>65</v>
+        <v>630</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>115</v>
+        <v>631</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>624</v>
+        <v>632</v>
       </c>
       <c r="H14" s="7">
         <v>16</v>
@@ -9123,13 +9141,13 @@
         <v>14954</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>625</v>
+        <v>633</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>626</v>
+        <v>634</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>627</v>
+        <v>635</v>
       </c>
       <c r="M14" s="7">
         <v>43</v>
@@ -9138,13 +9156,13 @@
         <v>35120</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>628</v>
+        <v>636</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>629</v>
+        <v>637</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>630</v>
+        <v>638</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -9159,13 +9177,13 @@
         <v>8222</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>631</v>
+        <v>639</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>632</v>
+        <v>640</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>633</v>
+        <v>641</v>
       </c>
       <c r="H15" s="7">
         <v>17</v>
@@ -9174,13 +9192,13 @@
         <v>12762</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>597</v>
+        <v>642</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>634</v>
+        <v>643</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>635</v>
+        <v>644</v>
       </c>
       <c r="M15" s="7">
         <v>29</v>
@@ -9189,13 +9207,13 @@
         <v>20984</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>636</v>
+        <v>645</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>637</v>
+        <v>646</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>638</v>
+        <v>304</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -9210,13 +9228,13 @@
         <v>14391</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>639</v>
+        <v>647</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>640</v>
+        <v>648</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>641</v>
+        <v>649</v>
       </c>
       <c r="H16" s="7">
         <v>15</v>
@@ -9225,13 +9243,13 @@
         <v>10609</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>642</v>
+        <v>650</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>643</v>
+        <v>651</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>644</v>
+        <v>599</v>
       </c>
       <c r="M16" s="7">
         <v>35</v>
@@ -9240,13 +9258,13 @@
         <v>25000</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>645</v>
+        <v>652</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>442</v>
+        <v>653</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>646</v>
+        <v>654</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -9314,13 +9332,13 @@
         <v>8976</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>647</v>
+        <v>655</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>648</v>
+        <v>426</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>649</v>
+        <v>656</v>
       </c>
       <c r="H18" s="7">
         <v>11</v>
@@ -9329,13 +9347,13 @@
         <v>8157</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>650</v>
+        <v>657</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>648</v>
+        <v>658</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>436</v>
+        <v>659</v>
       </c>
       <c r="M18" s="7">
         <v>22</v>
@@ -9344,13 +9362,13 @@
         <v>17133</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>650</v>
+        <v>657</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>651</v>
+        <v>660</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>380</v>
+        <v>661</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -9362,16 +9380,16 @@
         <v>28</v>
       </c>
       <c r="D19" s="7">
-        <v>26826</v>
+        <v>26825</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>652</v>
+        <v>662</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>608</v>
+        <v>663</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>653</v>
+        <v>664</v>
       </c>
       <c r="H19" s="7">
         <v>21</v>
@@ -9380,13 +9398,13 @@
         <v>12624</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>654</v>
+        <v>665</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>95</v>
+        <v>666</v>
       </c>
       <c r="M19" s="7">
         <v>49</v>
@@ -9395,13 +9413,13 @@
         <v>39450</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>655</v>
+        <v>667</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>656</v>
+        <v>614</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>657</v>
+        <v>668</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -9416,13 +9434,13 @@
         <v>41182</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>658</v>
+        <v>335</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>659</v>
+        <v>669</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>660</v>
+        <v>670</v>
       </c>
       <c r="H20" s="7">
         <v>58</v>
@@ -9434,10 +9452,10 @@
         <v>102</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>661</v>
+        <v>671</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>662</v>
+        <v>672</v>
       </c>
       <c r="M20" s="7">
         <v>113</v>
@@ -9446,13 +9464,13 @@
         <v>80551</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>663</v>
+        <v>673</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>664</v>
+        <v>674</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>665</v>
+        <v>535</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -9467,13 +9485,13 @@
         <v>209171</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>666</v>
+        <v>675</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>667</v>
+        <v>676</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>668</v>
+        <v>677</v>
       </c>
       <c r="H21" s="7">
         <v>249</v>
@@ -9482,13 +9500,13 @@
         <v>188958</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>669</v>
+        <v>678</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>670</v>
+        <v>679</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>671</v>
+        <v>680</v>
       </c>
       <c r="M21" s="7">
         <v>512</v>
@@ -9497,13 +9515,13 @@
         <v>398129</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>672</v>
+        <v>681</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>673</v>
+        <v>157</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>674</v>
+        <v>682</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -9515,16 +9533,16 @@
         <v>151</v>
       </c>
       <c r="D22" s="7">
-        <v>106762</v>
+        <v>106761</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>453</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>675</v>
+        <v>683</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>583</v>
+        <v>684</v>
       </c>
       <c r="H22" s="7">
         <v>159</v>
@@ -9533,13 +9551,13 @@
         <v>102791</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>676</v>
+        <v>685</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>677</v>
+        <v>686</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>678</v>
+        <v>168</v>
       </c>
       <c r="M22" s="7">
         <v>310</v>
@@ -9548,13 +9566,13 @@
         <v>209553</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>679</v>
+        <v>687</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>680</v>
+        <v>688</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>681</v>
+        <v>689</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -9569,13 +9587,13 @@
         <v>96235</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>682</v>
+        <v>690</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>683</v>
+        <v>691</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>684</v>
+        <v>692</v>
       </c>
       <c r="H23" s="7">
         <v>139</v>
@@ -9584,13 +9602,13 @@
         <v>93629</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>685</v>
+        <v>693</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>686</v>
+        <v>694</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>124</v>
+        <v>695</v>
       </c>
       <c r="M23" s="7">
         <v>281</v>
@@ -9599,13 +9617,13 @@
         <v>189865</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>687</v>
+        <v>696</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>688</v>
+        <v>697</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>405</v>
+        <v>365</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -9617,7 +9635,7 @@
         <v>650</v>
       </c>
       <c r="D24" s="7">
-        <v>489152</v>
+        <v>489151</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>21</v>
@@ -9661,7 +9679,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -9673,13 +9691,13 @@
         <v>2392</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>133</v>
+        <v>698</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>689</v>
+        <v>378</v>
       </c>
       <c r="H25" s="7">
         <v>3</v>
@@ -9688,13 +9706,13 @@
         <v>1825</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>690</v>
+        <v>699</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>691</v>
+        <v>700</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>195</v>
+        <v>701</v>
       </c>
       <c r="M25" s="7">
         <v>7</v>
@@ -9703,13 +9721,13 @@
         <v>4218</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>692</v>
+        <v>702</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>136</v>
+        <v>704</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -9724,13 +9742,13 @@
         <v>13535</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>694</v>
+        <v>705</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>695</v>
+        <v>477</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>696</v>
+        <v>706</v>
       </c>
       <c r="H26" s="7">
         <v>10</v>
@@ -9739,13 +9757,13 @@
         <v>7254</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>697</v>
+        <v>707</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>698</v>
+        <v>708</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>699</v>
+        <v>709</v>
       </c>
       <c r="M26" s="7">
         <v>27</v>
@@ -9754,13 +9772,13 @@
         <v>20788</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>700</v>
+        <v>710</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>695</v>
+        <v>711</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>701</v>
+        <v>712</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -9775,13 +9793,13 @@
         <v>16469</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>578</v>
+        <v>199</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>576</v>
+        <v>710</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>702</v>
+        <v>713</v>
       </c>
       <c r="H27" s="7">
         <v>15</v>
@@ -9790,13 +9808,13 @@
         <v>10760</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>703</v>
+        <v>479</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>704</v>
+        <v>373</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="M27" s="7">
         <v>37</v>
@@ -9805,13 +9823,13 @@
         <v>27229</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>705</v>
+        <v>527</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>576</v>
+        <v>32</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>706</v>
+        <v>714</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -9826,13 +9844,13 @@
         <v>60513</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>707</v>
+        <v>715</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>708</v>
+        <v>716</v>
       </c>
       <c r="H28" s="7">
         <v>76</v>
@@ -9841,13 +9859,13 @@
         <v>52966</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>709</v>
+        <v>717</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>710</v>
+        <v>718</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>711</v>
+        <v>638</v>
       </c>
       <c r="M28" s="7">
         <v>156</v>
@@ -9856,13 +9874,13 @@
         <v>113480</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>712</v>
+        <v>719</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>105</v>
+        <v>720</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>713</v>
+        <v>721</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -9877,13 +9895,13 @@
         <v>47883</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>399</v>
+        <v>722</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>714</v>
+        <v>723</v>
       </c>
       <c r="H29" s="7">
         <v>63</v>
@@ -9892,13 +9910,13 @@
         <v>38943</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>715</v>
+        <v>413</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>716</v>
+        <v>724</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>717</v>
+        <v>725</v>
       </c>
       <c r="M29" s="7">
         <v>130</v>
@@ -9907,13 +9925,13 @@
         <v>86827</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>718</v>
+        <v>726</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>719</v>
+        <v>405</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>720</v>
+        <v>727</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -9928,13 +9946,13 @@
         <v>29495</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>721</v>
+        <v>262</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>722</v>
+        <v>728</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>723</v>
+        <v>729</v>
       </c>
       <c r="H30" s="7">
         <v>61</v>
@@ -9943,13 +9961,13 @@
         <v>38311</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>409</v>
+        <v>730</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>724</v>
+        <v>731</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>725</v>
+        <v>555</v>
       </c>
       <c r="M30" s="7">
         <v>104</v>
@@ -9958,13 +9976,13 @@
         <v>67806</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>726</v>
+        <v>732</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>727</v>
+        <v>733</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>398</v>
+        <v>509</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -10032,13 +10050,13 @@
         <v>16110</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>728</v>
+        <v>734</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>191</v>
+        <v>735</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>729</v>
+        <v>736</v>
       </c>
       <c r="H32" s="7">
         <v>16</v>
@@ -10047,13 +10065,13 @@
         <v>11592</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>730</v>
+        <v>737</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>731</v>
+        <v>738</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>732</v>
+        <v>739</v>
       </c>
       <c r="M32" s="7">
         <v>37</v>
@@ -10062,13 +10080,13 @@
         <v>27703</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>733</v>
+        <v>740</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>734</v>
+        <v>565</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>735</v>
+        <v>741</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -10083,13 +10101,13 @@
         <v>44930</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>736</v>
+        <v>385</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>737</v>
+        <v>742</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>701</v>
+        <v>743</v>
       </c>
       <c r="H33" s="7">
         <v>36</v>
@@ -10098,13 +10116,13 @@
         <v>22847</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>738</v>
+        <v>744</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>739</v>
+        <v>745</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>740</v>
+        <v>746</v>
       </c>
       <c r="M33" s="7">
         <v>89</v>
@@ -10113,13 +10131,13 @@
         <v>67777</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>741</v>
+        <v>285</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>742</v>
+        <v>747</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>743</v>
+        <v>748</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -10134,13 +10152,13 @@
         <v>64317</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>744</v>
+        <v>749</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>530</v>
+        <v>750</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>745</v>
+        <v>751</v>
       </c>
       <c r="H34" s="7">
         <v>87</v>
@@ -10149,13 +10167,13 @@
         <v>58426</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>746</v>
+        <v>752</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>747</v>
+        <v>753</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>748</v>
+        <v>754</v>
       </c>
       <c r="M34" s="7">
         <v>174</v>
@@ -10164,13 +10182,13 @@
         <v>122743</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>749</v>
+        <v>755</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>750</v>
+        <v>756</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>255</v>
+        <v>757</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -10185,13 +10203,13 @@
         <v>289851</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>751</v>
+        <v>758</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>752</v>
+        <v>759</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>753</v>
+        <v>760</v>
       </c>
       <c r="H35" s="7">
         <v>342</v>
@@ -10200,13 +10218,13 @@
         <v>258049</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>754</v>
+        <v>761</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>755</v>
+        <v>762</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>756</v>
+        <v>763</v>
       </c>
       <c r="M35" s="7">
         <v>712</v>
@@ -10215,13 +10233,13 @@
         <v>547899</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>757</v>
+        <v>764</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>758</v>
+        <v>765</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>759</v>
+        <v>766</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -10236,13 +10254,13 @@
         <v>162867</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>760</v>
+        <v>767</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>67</v>
+        <v>549</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>761</v>
+        <v>318</v>
       </c>
       <c r="H36" s="7">
         <v>239</v>
@@ -10251,13 +10269,13 @@
         <v>154497</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>762</v>
+        <v>590</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>685</v>
+        <v>768</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>763</v>
+        <v>769</v>
       </c>
       <c r="M36" s="7">
         <v>469</v>
@@ -10266,13 +10284,13 @@
         <v>317363</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>764</v>
+        <v>770</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>765</v>
+        <v>771</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>766</v>
+        <v>772</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -10287,13 +10305,13 @@
         <v>140121</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>767</v>
+        <v>773</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>768</v>
+        <v>774</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>769</v>
+        <v>775</v>
       </c>
       <c r="H37" s="7">
         <v>215</v>
@@ -10302,13 +10320,13 @@
         <v>142550</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>770</v>
+        <v>776</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>771</v>
+        <v>777</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>772</v>
+        <v>778</v>
       </c>
       <c r="M37" s="7">
         <v>420</v>
@@ -10317,13 +10335,13 @@
         <v>282671</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>773</v>
+        <v>779</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>319</v>
+        <v>780</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>774</v>
+        <v>153</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -10379,7 +10397,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
